--- a/Assets/GameConfig/InteractConfig.xlsx
+++ b/Assets/GameConfig/InteractConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Key</t>
   </si>
@@ -60,6 +60,66 @@
   </si>
   <si>
     <t>restoreIslandTimeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restoreIslandFatigueIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addIslandFatigueIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processFoodFatigeIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeCollectFatigueIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiveCollectFatigueIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eatFoodHungerIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建浮岛疲劳值上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复浮岛疲劳值上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工食品疲劳值上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动收集疲劳值上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动收集疲劳值上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃食物疲劳值上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃食物花费时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动收集花费时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动收集花费时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,17 +445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -416,6 +476,9 @@
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -424,6 +487,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -464,6 +530,75 @@
       </c>
       <c r="B7">
         <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>-5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameConfig/InteractConfig.xlsx
+++ b/Assets/GameConfig/InteractConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Key</t>
   </si>
@@ -120,6 +120,62 @@
   </si>
   <si>
     <t>被动收集花费时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改后使用ExcelTool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishGame_pointerMoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏指针移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishGame_pointAreaLengthMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointArea见钓鱼小游戏图示.vsdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishGame_pointAreaLengthMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointAreaLength的随机最大长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointAreaLength的随机最小长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见钓鱼小游戏图示.vsdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishGame_diceIntervalTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掷骰子的时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishGame_diceTurnReusltPro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掷骰子结果为转向的概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +196,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -163,8 +226,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,20 +509,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +533,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -479,8 +547,11 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -491,7 +562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -502,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -513,7 +584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -524,7 +595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -535,7 +606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -546,7 +617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -557,7 +628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -568,7 +639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -579,7 +650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -590,7 +661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -599,6 +670,73 @@
       </c>
       <c r="C13" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameConfig/InteractConfig.xlsx
+++ b/Assets/GameConfig/InteractConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Key</t>
   </si>
@@ -176,6 +176,62 @@
   </si>
   <si>
     <t>掷骰子结果为转向的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eatFood_hungerDec_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃东西Hunger值减少量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_makeFoodMaterialCost_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作食物消耗的食材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_addIsland_hungerDecrea_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_restoreIsland_hungerDecrea_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_processFood_hungerDecrea_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_positiveCollect_hungerDecrea_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_negativeCollect_hungerDecrea_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建浮岛饥饿值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修浮岛饥饿值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工食物饥饿值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动收集饥饿值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动收集饥饿值变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
@@ -542,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -567,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -589,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -611,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -622,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -633,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -644,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -655,7 +711,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -674,69 +730,146 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>-10</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>-10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D23" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>-30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>-4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameConfig/InteractConfig.xlsx
+++ b/Assets/GameConfig/InteractConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>Key</t>
   </si>
@@ -87,30 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建浮岛疲劳值上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复浮岛疲劳值上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工食品疲劳值上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动收集疲劳值上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动收集疲劳值上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃食物疲劳值上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吃食物花费时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,6 +208,70 @@
   </si>
   <si>
     <t>被动收集饥饿值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_chatWithNPC_fatigueIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_hugWhithNPC_fatigueIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和NPC拥抱疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和NPC对话疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃食物疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动收集疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动收集疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工食品疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复浮岛疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建浮岛疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_aterHug_NPCFavorabilityIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_afterChat_NPCFavorabilityIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和NPC拥抱后，其好感变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和NPC对话后，其好感变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_addIsland_buildingMaterialCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增浮岛建材消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,16 +301,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -278,13 +350,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -565,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,298 +683,381 @@
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="5">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7">
+        <v>-10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7">
+        <v>-4</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5">
+        <v>-30</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="8">
+        <v>-10</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="8">
+        <v>15</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7">
+        <v>10</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>80</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B28" s="7">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>-5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14">
-        <v>-10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15">
-        <v>-10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16">
-        <v>-10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17">
-        <v>-10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18">
-        <v>-10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="7">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23">
+      <c r="D30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24">
-        <v>-30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25">
-        <v>-4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/GameConfig/InteractConfig.xlsx
+++ b/Assets/GameConfig/InteractConfig.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -987,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>24</v>
@@ -999,7 +999,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>28</v>
@@ -1013,7 +1013,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>29</v>

--- a/Assets/GameConfig/InteractConfig.xlsx
+++ b/Assets/GameConfig/InteractConfig.xlsx
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加工食物饥饿值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主动收集饥饿值变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,6 +268,10 @@
   </si>
   <si>
     <t>新增浮岛建材消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工食物饥饿值变化(默认值)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -699,13 +699,13 @@
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5">
         <v>-10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -713,37 +713,37 @@
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5">
         <v>-30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -755,7 +755,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -773,13 +773,13 @@
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="6">
         <v>-15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -815,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -839,7 +839,7 @@
         <v>-10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -863,7 +863,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -899,7 +899,7 @@
         <v>-10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -923,7 +923,7 @@
         <v>-10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -946,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -957,7 +957,7 @@
         <v>-10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -968,7 +968,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1049,15 +1049,6 @@
       <c r="D30" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/GameConfig/InteractConfig.xlsx
+++ b/Assets/GameConfig/InteractConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>Key</t>
   </si>
@@ -33,245 +33,278 @@
     <t>positiveCollectTimeCost</t>
   </si>
   <si>
+    <t>eatFoodTimeCost</t>
+  </si>
+  <si>
+    <t>修复浮岛用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增浮岛用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工食物用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addIslandTimeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processFoodTimeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restoreIslandTimeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restoreIslandFatigueIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addIslandFatigueIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processFoodFatigeIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeCollectFatigueIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiveCollectFatigueIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eatFoodHungerIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃食物花费时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动收集花费时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动收集花费时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改后使用ExcelTool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishGame_pointerMoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏指针移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishGame_pointAreaLengthMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointArea见钓鱼小游戏图示.vsdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishGame_pointAreaLengthMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointAreaLength的随机最大长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointAreaLength的随机最小长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见钓鱼小游戏图示.vsdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishGame_diceIntervalTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掷骰子的时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishGame_diceTurnReusltPro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掷骰子结果为转向的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eatFood_hungerDec_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃东西Hunger值减少量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_makeFoodMaterialCost_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作食物消耗的食材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_addIsland_hungerDecrea_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_restoreIsland_hungerDecrea_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_processFood_hungerDecrea_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_positiveCollect_hungerDecrea_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_negativeCollect_hungerDecrea_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建浮岛饥饿值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修浮岛饥饿值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动收集饥饿值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动收集饥饿值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_chatWithNPC_fatigueIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_hugWhithNPC_fatigueIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和NPC拥抱疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和NPC对话疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃食物疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动收集疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动收集疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工食品疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复浮岛疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建浮岛疲劳值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_aterHug_NPCFavorabilityIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_afterChat_NPCFavorabilityIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和NPC拥抱后，其好感变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和NPC对话后，其好感变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_addIsland_buildingMaterialCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增浮岛建材消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工食物饥饿值变化(默认值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_positiveCollect_buildingMaterialResourceCollectValue_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动收集建材收集量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_positiveCollect_foodMaterialResourceCollectValue_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动收集食材材收集量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>negativeCollectTimeCost</t>
-  </si>
-  <si>
-    <t>eatFoodTimeCost</t>
-  </si>
-  <si>
-    <t>修复浮岛用时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增浮岛用时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工食物用时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addIslandTimeCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processFoodTimeCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restoreIslandTimeCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restoreIslandFatigueIncrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addIslandFatigueIncrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processFoodFatigeIncrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negativeCollectFatigueIncrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>positiveCollectFatigueIncrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eatFoodHungerIncrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃食物花费时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动收集花费时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动收集花费时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改后使用ExcelTool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishGame_pointerMoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏指针移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishGame_pointAreaLengthMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointArea见钓鱼小游戏图示.vsdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishGame_pointAreaLengthMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointAreaLength的随机最大长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointAreaLength的随机最小长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>见钓鱼小游戏图示.vsdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishGame_diceIntervalTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掷骰子的时间间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishGame_diceTurnReusltPro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掷骰子结果为转向的概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eatFood_hungerDec_default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃东西Hunger值减少量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interact_makeFoodMaterialCost_default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作食物消耗的食材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interact_addIsland_hungerDecrea_default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interact_restoreIsland_hungerDecrea_default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interact_processFood_hungerDecrea_default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interact_positiveCollect_hungerDecrea_default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interact_negativeCollect_hungerDecrea_default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建浮岛饥饿值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修浮岛饥饿值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动收集饥饿值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动收集饥饿值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interact_chatWithNPC_fatigueIncrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interact_hugWhithNPC_fatigueIncrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和NPC拥抱疲劳值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和NPC对话疲劳值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃食物疲劳值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动收集疲劳值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动收集疲劳值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工食品疲劳值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复浮岛疲劳值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建浮岛疲劳值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interact_aterHug_NPCFavorabilityIncrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interact_afterChat_NPCFavorabilityIncrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和NPC拥抱后，其好感变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和NPC对话后，其好感变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interact_addIsland_buildingMaterialCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增浮岛建材消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工食物饥饿值变化(默认值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_negativeCollect_buildingMaterialResourceCollectValue_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_negativeCollect_foodMaterialResourceCollectValue_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动收集建材值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动收集食材材值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,15 +702,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="1" max="1" width="59.875" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
@@ -694,360 +727,404 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5">
         <v>-10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5">
         <v>-30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6">
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6">
         <v>-10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="6">
         <v>-15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5">
         <v>-10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="7">
         <v>-10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7">
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7">
         <v>-4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5">
         <v>-10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5">
         <v>-30</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="8">
         <v>-10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B21" s="8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B22" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="5">
-        <v>-10</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>47</v>
+      <c r="A23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="5">
-        <v>15</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>53</v>
+      <c r="A24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B25" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5">
+        <v>15</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="5">
+        <v>15</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="5">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="7">
-        <v>6</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7">
-        <v>150</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7">
-        <v>75</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="7">
-        <v>2</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>30</v>
+      <c r="C29" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="7">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="7">
+        <v>150</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7">
+        <v>75</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="7">
-        <v>30</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>30</v>
+      <c r="D34" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameConfig/InteractConfig.xlsx
+++ b/Assets/GameConfig/InteractConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>restoreIslandFatigueIncrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>addIslandFatigueIncrease</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interact_restoreIsland_hungerDecrea_default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>interact_processFood_hungerDecrea_default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,6 +297,14 @@
   </si>
   <si>
     <t>被动收集食材材值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_restoreIsland_fatigueChange_defalut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_restoreIsland_hungerChange_default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -727,92 +727,92 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5">
         <v>-10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5">
         <v>-30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6">
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="6">
         <v>-10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="6">
         <v>-15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -830,25 +830,25 @@
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5">
         <v>-10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -866,13 +866,13 @@
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="7">
         <v>-10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -890,25 +890,25 @@
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="7">
         <v>-4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -920,55 +920,55 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>-10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5">
         <v>-30</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="8">
         <v>-10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="8">
         <v>15</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -979,152 +979,152 @@
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="8">
         <v>4</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="8">
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="5">
         <v>-10</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="5">
         <v>15</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" s="5">
         <v>15</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="7">
         <v>6</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="7">
         <v>150</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="7">
         <v>75</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="7">
         <v>2</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="7">
         <v>30</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameConfig/InteractConfig.xlsx
+++ b/Assets/GameConfig/InteractConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="A25:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/GameConfig/InteractConfig.xlsx
+++ b/Assets/GameConfig/InteractConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>Key</t>
   </si>
@@ -705,18 +705,18 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="A25:C29"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.875" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="59.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -730,7 +730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -744,7 +744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -756,7 +756,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -768,7 +768,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -780,7 +780,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -792,19 +792,19 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="6">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
@@ -816,7 +816,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -828,31 +828,31 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -864,19 +864,19 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="7">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -888,31 +888,31 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="7">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -936,7 +936,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
@@ -948,30 +948,30 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="8">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
@@ -982,51 +982,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>23</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>31</v>
       </c>
